--- a/nasdaq_ratio_by_year.xlsx
+++ b/nasdaq_ratio_by_year.xlsx
@@ -14,25 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>holding year</t>
   </si>
   <si>
     <t>price ratio</t>
   </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??.00_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +50,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -62,17 +86,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,32 +110,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +141,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -148,37 +180,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -186,7 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,31 +202,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,151 +310,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +415,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,6 +435,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -445,15 +455,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,156 +511,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,56 +982,136 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.3457943925234" customWidth="1"/>
-    <col min="2" max="2" width="9.5981308411215" style="1"/>
+    <col min="1" max="1" width="11.6261682242991" customWidth="1"/>
+    <col min="2" max="2" width="12.3457943925234" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4392523364486" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8.418456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C3" s="5">
         <v>3.453598</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C4" s="5">
         <v>1.97915</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C5" s="5">
         <v>1.53718</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C6" s="5">
         <v>1.164009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.768917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.175716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.662036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.414601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.133149</v>
       </c>
     </row>
   </sheetData>
